--- a/data/trans_orig/P19F$mañana-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>99538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86543</v>
+        <v>85738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113543</v>
+        <v>113045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5553008772931672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4828011069274656</v>
+        <v>0.4783136078899203</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6334306660694019</v>
+        <v>0.6306517480946012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -762,19 +762,19 @@
         <v>102160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88966</v>
+        <v>90871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113855</v>
+        <v>115284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6310910410812436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5495895122781388</v>
+        <v>0.5613518393116743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.703339427616147</v>
+        <v>0.7121636918371349</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -783,19 +783,19 @@
         <v>201698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>185014</v>
+        <v>182534</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220508</v>
+        <v>221351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5912659955341151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5423579544697117</v>
+        <v>0.5350889124354532</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6464067083827085</v>
+        <v>0.6488786691120214</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>117401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102805</v>
+        <v>103805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129972</v>
+        <v>130496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.654951530686547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.573526219512202</v>
+        <v>0.5791024702707137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7250824118938144</v>
+        <v>0.7280075746575279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -833,19 +833,19 @@
         <v>118999</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106470</v>
+        <v>106625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129208</v>
+        <v>129876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7351167552366061</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6577182198295399</v>
+        <v>0.6586759992349432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7981802835525775</v>
+        <v>0.8023057917005384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>222</v>
@@ -854,19 +854,19 @@
         <v>236400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217308</v>
+        <v>219462</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251776</v>
+        <v>254148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6929927702835064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6370263468468004</v>
+        <v>0.6433400303103541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7380666664399955</v>
+        <v>0.7450210019973971</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>41139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30125</v>
+        <v>29914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53316</v>
+        <v>54515</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2295053973502517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1680614708607402</v>
+        <v>0.16688444311273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2974367415201326</v>
+        <v>0.304127314857732</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -904,19 +904,19 @@
         <v>44123</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32606</v>
+        <v>33382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57318</v>
+        <v>57507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2725708360718912</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2014216555377925</v>
+        <v>0.2062166620171274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3540814831141507</v>
+        <v>0.3552492071432829</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -925,19 +925,19 @@
         <v>85262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68142</v>
+        <v>69512</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>100914</v>
+        <v>102561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.24994147399013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1997546795781959</v>
+        <v>0.2037715851888259</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2958237530933918</v>
+        <v>0.3006526204434465</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>114717</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98243</v>
+        <v>97668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>131781</v>
+        <v>129357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4528735005172312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3878398932500724</v>
+        <v>0.3855696944888778</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5202362595164833</v>
+        <v>0.510668863720278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -979,19 +979,19 @@
         <v>106455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91825</v>
+        <v>91081</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124038</v>
+        <v>122232</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4493782768523324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3876207574935702</v>
+        <v>0.3844798133860527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.523599802084169</v>
+        <v>0.515979275761825</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -1000,19 +1000,19 @@
         <v>221172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197354</v>
+        <v>198483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242632</v>
+        <v>243231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4511844088029223</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4025956581139475</v>
+        <v>0.4049001965788305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4949632250941445</v>
+        <v>0.4961845183878379</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>137559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>121286</v>
+        <v>122807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153531</v>
+        <v>154408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5430491554434503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4788067283764911</v>
+        <v>0.4848118550343725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6061020020498562</v>
+        <v>0.6095622745858291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>141</v>
@@ -1050,19 +1050,19 @@
         <v>154504</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>139692</v>
+        <v>140446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168678</v>
+        <v>168871</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6522067595755444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5896823000730279</v>
+        <v>0.5928631267846846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7120420310066983</v>
+        <v>0.7128561897577804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>273</v>
@@ -1071,19 +1071,19 @@
         <v>292063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>269474</v>
+        <v>270664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>313356</v>
+        <v>315165</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5958003446005178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.54971879640606</v>
+        <v>0.5521477795161109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6392367741834378</v>
+        <v>0.6429276980302394</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>84882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69139</v>
+        <v>72040</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99834</v>
+        <v>102470</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3350907720718442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2729428115877404</v>
+        <v>0.2843975439102865</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3941178463601338</v>
+        <v>0.4045267974456228</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>71</v>
@@ -1121,19 +1121,19 @@
         <v>74602</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59969</v>
+        <v>60771</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>89468</v>
+        <v>89047</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3149193205149674</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.253146300510664</v>
+        <v>0.2565313536454542</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3776689596611263</v>
+        <v>0.3758927634178741</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>148</v>
@@ -1142,19 +1142,19 @@
         <v>159484</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>138865</v>
+        <v>138689</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>181323</v>
+        <v>179178</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3253427745309512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2832809961394241</v>
+        <v>0.2829207898023061</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3698928824023186</v>
+        <v>0.3655188931469704</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>86143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74309</v>
+        <v>75150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97182</v>
+        <v>96089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6256593599845965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5397134362365416</v>
+        <v>0.5458181682807617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7058351681002777</v>
+        <v>0.6979010882724522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1196,19 +1196,19 @@
         <v>67794</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57580</v>
+        <v>58552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75771</v>
+        <v>75634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6943787737163901</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5897602521294081</v>
+        <v>0.5997119315759111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7760848474345673</v>
+        <v>0.7746804763930319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -1217,19 +1217,19 @@
         <v>153937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139446</v>
+        <v>139556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168317</v>
+        <v>167044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6541711910072643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5925909708141623</v>
+        <v>0.5930572969886757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7152793736172667</v>
+        <v>0.7098718713319337</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>108985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99674</v>
+        <v>99181</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117548</v>
+        <v>116981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7915618844618134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7239373820027597</v>
+        <v>0.7203545956719711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8537574631935021</v>
+        <v>0.8496403658033065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -1267,19 +1267,19 @@
         <v>85580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78036</v>
+        <v>77624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91360</v>
+        <v>90565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8765501389728814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7992838768432494</v>
+        <v>0.7950543965093106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9357496081675618</v>
+        <v>0.927603872000099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>200</v>
@@ -1288,19 +1288,19 @@
         <v>194565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>181773</v>
+        <v>182261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>204028</v>
+        <v>204587</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8268236921511003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7724629645282447</v>
+        <v>0.7745363382539251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8670376621416657</v>
+        <v>0.8694132988974875</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>50173</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38899</v>
+        <v>39563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61098</v>
+        <v>60924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3644083285577379</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2825251361328071</v>
+        <v>0.2873450168508196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4437552460503245</v>
+        <v>0.442497440702561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -1338,19 +1338,19 @@
         <v>20435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13808</v>
+        <v>12924</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31624</v>
+        <v>28680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2093019708893578</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1414240138687303</v>
+        <v>0.132375914461925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3239099102251846</v>
+        <v>0.2937574506015301</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -1359,19 +1359,19 @@
         <v>70608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57539</v>
+        <v>57497</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84123</v>
+        <v>84919</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.300054370626105</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.244517607270186</v>
+        <v>0.2443378504856327</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3574885253622433</v>
+        <v>0.3608737963129607</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>96386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81805</v>
+        <v>81343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112396</v>
+        <v>111906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4612923778166514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3915106448438314</v>
+        <v>0.3892985968735626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5379160569270088</v>
+        <v>0.5355699168211662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1413,19 +1413,19 @@
         <v>130234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114058</v>
+        <v>114282</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146125</v>
+        <v>145296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5756395276721661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5041408388884409</v>
+        <v>0.5051278393252501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6458774154123533</v>
+        <v>0.6422139208703042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>214</v>
@@ -1434,19 +1434,19 @@
         <v>226620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205454</v>
+        <v>205546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246699</v>
+        <v>247351</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5207381050451509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4721018637197211</v>
+        <v>0.4723132038993623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5668759173434411</v>
+        <v>0.5683740281962759</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>162268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149110</v>
+        <v>148730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173431</v>
+        <v>173409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.776595297455222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7136214625323011</v>
+        <v>0.7118053959164249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8300197799052704</v>
+        <v>0.8299162727925626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -1484,19 +1484,19 @@
         <v>182803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169028</v>
+        <v>167487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194180</v>
+        <v>194063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8079926113243732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7471092898824426</v>
+        <v>0.7402947699074869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.858281525053267</v>
+        <v>0.8577642891030712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>324</v>
@@ -1505,19 +1505,19 @@
         <v>345070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>325879</v>
+        <v>325853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360422</v>
+        <v>360448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7929178394541394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.74881948526163</v>
+        <v>0.7487593717858984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8281944787895122</v>
+        <v>0.8282534487480082</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>51942</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40724</v>
+        <v>39609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>66716</v>
+        <v>65321</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2485884564443424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1949007706048057</v>
+        <v>0.189566232343273</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3192937254909348</v>
+        <v>0.3126194740609594</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1555,19 +1555,19 @@
         <v>51941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38405</v>
+        <v>38556</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66463</v>
+        <v>66024</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2295790473722512</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1697516558030045</v>
+        <v>0.1704186702359445</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2937702782600473</v>
+        <v>0.2918285437916013</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>96</v>
@@ -1576,19 +1576,19 @@
         <v>103882</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>86378</v>
+        <v>87056</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>124356</v>
+        <v>122688</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2387060225760531</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1984823568562757</v>
+        <v>0.2000422247786151</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2857519545217228</v>
+        <v>0.281918124265008</v>
       </c>
     </row>
     <row r="16">
@@ -1609,19 +1609,19 @@
         <v>10547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5857</v>
+        <v>5118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18629</v>
+        <v>17462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07249697395432968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04025641164881157</v>
+        <v>0.03517863611876477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1280447625045265</v>
+        <v>0.1200239681787385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1630,19 +1630,19 @@
         <v>22143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14960</v>
+        <v>14448</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32405</v>
+        <v>30657</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1497380476521968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1011664936940327</v>
+        <v>0.09770348995754993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2191327027367494</v>
+        <v>0.2073128356531679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1651,19 +1651,19 @@
         <v>32690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24216</v>
+        <v>23417</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46733</v>
+        <v>44935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1114322390402344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08254642423473707</v>
+        <v>0.07982441234360596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1593006113096859</v>
+        <v>0.1531724598086947</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>136894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129836</v>
+        <v>130070</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141575</v>
+        <v>141567</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9409404626752753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8924296243686753</v>
+        <v>0.8940350386868674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9731189618387867</v>
+        <v>0.9730618928457042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1701,19 +1701,19 @@
         <v>140060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133755</v>
+        <v>132577</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144228</v>
+        <v>144383</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9471357138110468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9045030005126715</v>
+        <v>0.8965385822422242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9753230046344015</v>
+        <v>0.976371248785495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>282</v>
@@ -1722,19 +1722,19 @@
         <v>276952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268087</v>
+        <v>268178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>283478</v>
+        <v>284057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9440633315544488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9138429181183801</v>
+        <v>0.9141543445380421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9663084891020552</v>
+        <v>0.9682813823911351</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         <v>72008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59302</v>
+        <v>60374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83434</v>
+        <v>83955</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4949508721236171</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4076129634935689</v>
+        <v>0.4149794975288678</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5734848145498379</v>
+        <v>0.5770682252343948</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1772,19 +1772,19 @@
         <v>76842</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65746</v>
+        <v>64136</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87812</v>
+        <v>89077</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5196319643567915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4445990454855039</v>
+        <v>0.4337118731411085</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5938180852883512</v>
+        <v>0.6023712618021084</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -1793,19 +1793,19 @@
         <v>148850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132361</v>
+        <v>132586</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165448</v>
+        <v>164392</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5073919843803832</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4511849292645237</v>
+        <v>0.4519549379856559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5639718895456597</v>
+        <v>0.5603735013973431</v>
       </c>
     </row>
     <row r="19">
@@ -1826,19 +1826,19 @@
         <v>42213</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31955</v>
+        <v>32812</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55038</v>
+        <v>54322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2869383971059499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2172116172877208</v>
+        <v>0.2230356394835089</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3741200261625707</v>
+        <v>0.3692525434894555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1847,19 +1847,19 @@
         <v>44064</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33955</v>
+        <v>32716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57090</v>
+        <v>55495</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2476174986112785</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1908093498219792</v>
+        <v>0.1838496018810352</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3208177982314686</v>
+        <v>0.3118539593737741</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -1868,19 +1868,19 @@
         <v>86277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71878</v>
+        <v>71304</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101576</v>
+        <v>101731</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2654128316354421</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2211195598686528</v>
+        <v>0.2193533045022832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3124782654258731</v>
+        <v>0.3129557282829149</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>115942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105625</v>
+        <v>106577</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124957</v>
+        <v>124772</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7881107140507203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7179803221120997</v>
+        <v>0.7244524276447198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8493865929571023</v>
+        <v>0.8481286521038631</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1918,19 +1918,19 @@
         <v>142900</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130907</v>
+        <v>131837</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151949</v>
+        <v>152985</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8030255987186334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7356293532386164</v>
+        <v>0.7408571527918589</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.853876482891661</v>
+        <v>0.8596970159514079</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>254</v>
@@ -1939,19 +1939,19 @@
         <v>258842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>242982</v>
+        <v>242451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271990</v>
+        <v>272893</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7962756171606465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7474854657020472</v>
+        <v>0.7458502543307219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8367232747031097</v>
+        <v>0.83949880317404</v>
       </c>
     </row>
     <row r="21">
@@ -1968,19 +1968,19 @@
         <v>53174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41035</v>
+        <v>43457</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65491</v>
+        <v>65204</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3614483421933551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2789320499726366</v>
+        <v>0.2953957837326019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4451691953026853</v>
+        <v>0.443223903557104</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -1989,19 +1989,19 @@
         <v>82232</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69364</v>
+        <v>69293</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94921</v>
+        <v>95741</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.462101666800377</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3897893109614023</v>
+        <v>0.389394274160911</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5334081071894053</v>
+        <v>0.5380137670295881</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>134</v>
@@ -2010,19 +2010,19 @@
         <v>135406</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118209</v>
+        <v>117777</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>153650</v>
+        <v>153007</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4165493142361567</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3636462181861656</v>
+        <v>0.3623179070189154</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4726735205994069</v>
+        <v>0.4706954800141475</v>
       </c>
     </row>
     <row r="22">
@@ -2043,19 +2043,19 @@
         <v>123956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105864</v>
+        <v>102013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142746</v>
+        <v>142670</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3252182454988136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.277751447871641</v>
+        <v>0.2676486392782813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3745162358377571</v>
+        <v>0.3743180670816373</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>126</v>
@@ -2064,19 +2064,19 @@
         <v>137356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119032</v>
+        <v>118145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156498</v>
+        <v>155721</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3812769749380879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3304144526346524</v>
+        <v>0.3279512962564613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4344114338562802</v>
+        <v>0.4322561401441493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -2085,19 +2085,19 @@
         <v>261312</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>234158</v>
+        <v>234743</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>288415</v>
+        <v>290779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3524576422159439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3158325442049025</v>
+        <v>0.3166213054864783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3890151618422076</v>
+        <v>0.3922032371332522</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>294549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>277826</v>
+        <v>276144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>310729</v>
+        <v>310568</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7727953137874879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7289212745672384</v>
+        <v>0.7245067068801307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.81524602930728</v>
+        <v>0.81482541368501</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>264</v>
@@ -2135,19 +2135,19 @@
         <v>280895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>264213</v>
+        <v>262181</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>297581</v>
+        <v>295406</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7797181379479603</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7334115481983615</v>
+        <v>0.727770550821912</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8260344749960576</v>
+        <v>0.8199987318834344</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>526</v>
@@ -2156,19 +2156,19 @@
         <v>575444</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>553101</v>
+        <v>551032</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>598525</v>
+        <v>597157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7761591708637406</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.746023240113784</v>
+        <v>0.7432324488595794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8072918428625329</v>
+        <v>0.8054465351491377</v>
       </c>
     </row>
     <row r="24">
@@ -2185,19 +2185,19 @@
         <v>103086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84961</v>
+        <v>85605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122752</v>
+        <v>122764</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2704624719021876</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.222909242696177</v>
+        <v>0.2245984289916401</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3220605355899729</v>
+        <v>0.3220913590879949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -2206,19 +2206,19 @@
         <v>114519</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>96541</v>
+        <v>97712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133493</v>
+        <v>133501</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3178851904504103</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2679822877176811</v>
+        <v>0.2712328459693109</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3705531357392613</v>
+        <v>0.37057744225463</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>199</v>
@@ -2227,19 +2227,19 @@
         <v>217605</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191921</v>
+        <v>191644</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>243529</v>
+        <v>242928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2935055600502906</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2588633159833221</v>
+        <v>0.258490146056499</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.328472249818801</v>
+        <v>0.3276619745561747</v>
       </c>
     </row>
     <row r="25">
@@ -2260,19 +2260,19 @@
         <v>153503</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>136611</v>
+        <v>133971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172629</v>
+        <v>169293</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4710812256023467</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4192411518489244</v>
+        <v>0.4111392031968644</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.52977671928209</v>
+        <v>0.5195406251289553</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -2281,19 +2281,19 @@
         <v>172477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153048</v>
+        <v>152836</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>191205</v>
+        <v>190582</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5166929968340352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4584881743997686</v>
+        <v>0.4578524045091356</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5727968807346361</v>
+        <v>0.5709287141674794</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>305</v>
@@ -2302,19 +2302,19 @@
         <v>325980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>299920</v>
+        <v>301687</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>351628</v>
+        <v>353564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4941622316431459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4546572831263163</v>
+        <v>0.4573356315924428</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.533042288127852</v>
+        <v>0.53597762797413</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>309117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>300009</v>
+        <v>299282</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>315372</v>
+        <v>316189</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9486428903202003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9206913588512677</v>
+        <v>0.9184602834821494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9678387437722261</v>
+        <v>0.9703442759450195</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>276</v>
@@ -2352,19 +2352,19 @@
         <v>300117</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>287481</v>
+        <v>288296</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>310788</v>
+        <v>310431</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8990662002751593</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8612116760211349</v>
+        <v>0.8636515144258533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9310341048494842</v>
+        <v>0.9299627492063349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>576</v>
@@ -2373,19 +2373,19 @@
         <v>609234</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>592359</v>
+        <v>594240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>622139</v>
+        <v>621472</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9235555093325171</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8979738629117838</v>
+        <v>0.9008251414285338</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9431184879565357</v>
+        <v>0.9421065884658204</v>
       </c>
     </row>
     <row r="27">
@@ -2402,19 +2402,19 @@
         <v>91180</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>75691</v>
+        <v>75677</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>108012</v>
+        <v>108594</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2798203694755412</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2322866269037901</v>
+        <v>0.2322427204074402</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3314747945410081</v>
+        <v>0.3332630539695068</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>88</v>
@@ -2423,19 +2423,19 @@
         <v>93868</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>77524</v>
+        <v>76538</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>110386</v>
+        <v>111977</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2812012724671528</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2322393330552481</v>
+        <v>0.2292858656600202</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3306855126713198</v>
+        <v>0.335450490658445</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>176</v>
@@ -2444,19 +2444,19 @@
         <v>185048</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>161512</v>
+        <v>163777</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>208449</v>
+        <v>208676</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2805191502821283</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2448409492201973</v>
+        <v>0.2482742610325919</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.315992900529691</v>
+        <v>0.3163378883964403</v>
       </c>
     </row>
     <row r="28">
@@ -2477,19 +2477,19 @@
         <v>727003</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4087062509576784</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>733</v>
@@ -2498,19 +2498,19 @@
         <v>782683</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.449162664888907</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1434</v>
@@ -2519,19 +2519,19 @@
         <v>1509686</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4287262102817363</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>1382714</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7773341321941131</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1332</v>
@@ -2569,19 +2569,19 @@
         <v>1405857</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.806787011092903</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2657</v>
@@ -2590,19 +2590,19 @@
         <v>2788572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7919089642227874</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="30">
@@ -2619,19 +2619,19 @@
         <v>547584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3078406827149777</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>536</v>
@@ -2640,19 +2640,19 @@
         <v>558561</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3205444505344092</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1057</v>
@@ -2661,19 +2661,19 @@
         <v>1106145</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3141271745290971</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="31">
